--- a/products.xlsx
+++ b/products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
   <si>
     <t>ref</t>
   </si>
@@ -54,15 +54,274 @@
   </si>
   <si>
     <t>mark</t>
+  </si>
+  <si>
+    <t>M2180</t>
+  </si>
+  <si>
+    <t>Pompe embrillage FORD FOCUS TOURNEO</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>TIPWIN</t>
+  </si>
+  <si>
+    <t>M2732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage DACIA DOKKER 1,5DCI </t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>M2408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage RENAULT CLIO IV CAPTUR </t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>M2387</t>
+  </si>
+  <si>
+    <t>Pompe embrillage RENAULT KANGO -NISSAN</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>M4792</t>
+  </si>
+  <si>
+    <t>Pompe embrillage PEUGEOT RIFTER 1,6</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>M2002</t>
+  </si>
+  <si>
+    <t>Pompe embrillage NISSAN NV200 1,5DCI</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>M2152</t>
+  </si>
+  <si>
+    <t>Pompe embrillage FIAT DOUBLO 1,3 NEMO</t>
+  </si>
+  <si>
+    <t>M2199</t>
+  </si>
+  <si>
+    <t>Pompe embrillage GOLF CADY</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>M2238</t>
+  </si>
+  <si>
+    <t>Pompe embrillage TRAFIC 2,0 DCI</t>
+  </si>
+  <si>
+    <t>M2401</t>
+  </si>
+  <si>
+    <t>Pompe embrillage FORD FIESTA -MAX</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>S3013</t>
+  </si>
+  <si>
+    <t>Pompe embrillage 206,307 1,4</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>M2422</t>
+  </si>
+  <si>
+    <t>Pompe embrillage DACIA LOGAN</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>M2327</t>
+  </si>
+  <si>
+    <t>Pompe embrillage PEUGEOT 308</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>M2405</t>
+  </si>
+  <si>
+    <t>Pompe embrillage RENAULT CLIO III</t>
+  </si>
+  <si>
+    <t>S3032</t>
+  </si>
+  <si>
+    <t>Pompe embrillage BILER 1,3 NEMO</t>
+  </si>
+  <si>
+    <t>S3073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage PEUGEOT 207 208 1,4 </t>
+  </si>
+  <si>
+    <t>M2478</t>
+  </si>
+  <si>
+    <t>Pompe embrillage GOLF TIGUAN 2,0 TDI</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>M2244</t>
+  </si>
+  <si>
+    <t>Pompe embrillage PEUGEOT 307-C4</t>
+  </si>
+  <si>
+    <t>M2323</t>
+  </si>
+  <si>
+    <t>Pompe embrillage PEUGEOT PARTNER TEPE 1,6</t>
+  </si>
+  <si>
+    <t>M2392</t>
+  </si>
+  <si>
+    <t>Pompe embrillage DACIA DUSTER</t>
+  </si>
+  <si>
+    <t>M2004</t>
+  </si>
+  <si>
+    <t>Pompe embrillage DACIA DUSTER 1,5DCI LOGANE</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>M2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage FORD FOCUS    </t>
+  </si>
+  <si>
+    <t>M2329</t>
+  </si>
+  <si>
+    <t>Pompe embrillage PEUGEOT 208-207 1,4 HDI</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage FORD TRANSIT TOURNEO </t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage HYUNDAI CRDI KIA SPORTEG </t>
+  </si>
+  <si>
+    <t>Pompe embrillage HYUNDAI TUCSON 2,0 SPORTEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage RENAULT MASTER 2,3 DCI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage TOYOTA COROLLA </t>
+  </si>
+  <si>
+    <t>M2365</t>
+  </si>
+  <si>
+    <t>Pompe embrillage CITROEN JUMPER DUCATO</t>
+  </si>
+  <si>
+    <t>S3077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompe embrillage CITROEN -JUMPER BOXER </t>
+  </si>
+  <si>
+    <t>M2184</t>
+  </si>
+  <si>
+    <t>Pompe embrillage RENAULT TRAFIC II 2,0 DCI</t>
+  </si>
+  <si>
+    <t>245.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +344,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
@@ -418,6 +704,998 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2600</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>112257</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>112402</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>112591</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>112286</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>112462</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="149" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
